--- a/Figures/Projections/Forecasts_CovIndex_Region.xlsx
+++ b/Figures/Projections/Forecasts_CovIndex_Region.xlsx
@@ -7,6 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Americas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Continent" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Island" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Southern Cone" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Non Latin Caribbean" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Central America" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Andean Area" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Brazil" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Latin Caribbean" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mexico" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -764,10 +773,10 @@
         <v>80.4439274486545</v>
       </c>
       <c r="E22" t="n">
-        <v>78.7783581711464</v>
+        <v>78.872287196725</v>
       </c>
       <c r="F22" t="n">
-        <v>81.9583414078265</v>
+        <v>81.9681714072509</v>
       </c>
     </row>
     <row r="23">
@@ -780,10 +789,10 @@
         <v>80.6522109654016</v>
       </c>
       <c r="E23" t="n">
-        <v>79.0198488908527</v>
+        <v>79.1151176773947</v>
       </c>
       <c r="F23" t="n">
-        <v>82.2013016971327</v>
+        <v>82.021016247693</v>
       </c>
     </row>
     <row r="24">
@@ -796,10 +805,10 @@
         <v>81.3672881247062</v>
       </c>
       <c r="E24" t="n">
-        <v>78.350839709276</v>
+        <v>78.3016082063018</v>
       </c>
       <c r="F24" t="n">
-        <v>82.8771447658769</v>
+        <v>82.9344027381628</v>
       </c>
     </row>
     <row r="25">
@@ -812,10 +821,10 @@
         <v>82.5850037954883</v>
       </c>
       <c r="E25" t="n">
-        <v>79.1157229640071</v>
+        <v>77.9577710255752</v>
       </c>
       <c r="F25" t="n">
-        <v>84.2049472309278</v>
+        <v>84.0743413043464</v>
       </c>
     </row>
     <row r="26">
@@ -828,10 +837,10 @@
         <v>82.8409974604186</v>
       </c>
       <c r="E26" t="n">
-        <v>80.0738721316755</v>
+        <v>79.7741951906096</v>
       </c>
       <c r="F26" t="n">
-        <v>84.357980761657</v>
+        <v>84.4204861692212</v>
       </c>
     </row>
     <row r="27">
@@ -844,10 +853,10 @@
         <v>83.2430608290686</v>
       </c>
       <c r="E27" t="n">
-        <v>80.23748849011</v>
+        <v>79.9300177795184</v>
       </c>
       <c r="F27" t="n">
-        <v>84.8718700973981</v>
+        <v>84.7985728852934</v>
       </c>
     </row>
     <row r="28">
@@ -860,10 +869,10 @@
         <v>84.2276070785667</v>
       </c>
       <c r="E28" t="n">
-        <v>81.0138353573487</v>
+        <v>79.9177571732489</v>
       </c>
       <c r="F28" t="n">
-        <v>85.7904501619956</v>
+        <v>85.8287993187588</v>
       </c>
     </row>
     <row r="29">
@@ -876,10 +885,10 @@
         <v>84.7921255011253</v>
       </c>
       <c r="E29" t="n">
-        <v>82.1310480330421</v>
+        <v>81.7048248036228</v>
       </c>
       <c r="F29" t="n">
-        <v>86.2786491410853</v>
+        <v>86.4163524517844</v>
       </c>
     </row>
     <row r="30">
@@ -892,10 +901,10 @@
         <v>85.221211575936</v>
       </c>
       <c r="E30" t="n">
-        <v>82.6625273177206</v>
+        <v>82.6529370071917</v>
       </c>
       <c r="F30" t="n">
-        <v>86.8337537552261</v>
+        <v>86.9202928374852</v>
       </c>
     </row>
     <row r="31">
@@ -908,10 +917,10 @@
         <v>85.8988317416996</v>
       </c>
       <c r="E31" t="n">
-        <v>83.0954272799598</v>
+        <v>82.9696061538969</v>
       </c>
       <c r="F31" t="n">
-        <v>87.4226196793245</v>
+        <v>87.51164265999</v>
       </c>
     </row>
     <row r="32">
@@ -924,10 +933,4288 @@
         <v>86.6725313994143</v>
       </c>
       <c r="E32" t="n">
-        <v>83.2538337266982</v>
+        <v>83.263641510769</v>
       </c>
       <c r="F32" t="n">
-        <v>88.1154772392098</v>
+        <v>88.2080612286261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>56.00663</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56.0183296203613</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>61.5987421479999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>61.579906463623</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61.6508977939999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61.6694374084473</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61.7129712109999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.715892791748</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61.7394890553332</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61.7243423461914</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60.71852</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60.7309226989746</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62.1229311436665</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.1266822814941</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62.7782843199999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.7625961303711</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>64.1957498173332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64.2096710205078</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>64.3895890666666</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64.3566360473633</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>65.82896</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65.8566818237305</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68.2720497656666</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68.2772827148438</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68.3696717386666</v>
+      </c>
+      <c r="C14" t="n">
+        <v>68.3445434570312</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71.0358197679999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71.0479125976562</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72.2171519459999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>72.22021484375</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>73.53358</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.5350952148438</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>72.7782935483333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>72.7835845947266</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74.15421</v>
+      </c>
+      <c r="C19" t="n">
+        <v>74.1607055664062</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72.8296552633333</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72.8322296142578</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>74.40357</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74.3850173950195</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>72.9780502319336</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72.8067154440106</v>
+      </c>
+      <c r="F22" t="n">
+        <v>74.3964653578317</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>72.9780502319336</v>
+      </c>
+      <c r="E23" t="n">
+        <v>72.7719161760317</v>
+      </c>
+      <c r="F23" t="n">
+        <v>74.3982488513794</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>72.7700435507616</v>
+      </c>
+      <c r="F24" t="n">
+        <v>74.3846740330559</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E25" t="n">
+        <v>72.7617756927579</v>
+      </c>
+      <c r="F25" t="n">
+        <v>74.3861114905186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E26" t="n">
+        <v>72.7570586628748</v>
+      </c>
+      <c r="F26" t="n">
+        <v>74.3923110430436</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E27" t="n">
+        <v>72.7691493195412</v>
+      </c>
+      <c r="F27" t="n">
+        <v>74.3889589712925</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E28" t="n">
+        <v>72.7621476862891</v>
+      </c>
+      <c r="F28" t="n">
+        <v>74.3868034107379</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E29" t="n">
+        <v>72.7666326559849</v>
+      </c>
+      <c r="F29" t="n">
+        <v>74.3856319799805</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E30" t="n">
+        <v>72.7706116216312</v>
+      </c>
+      <c r="F30" t="n">
+        <v>74.3867358755208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E31" t="n">
+        <v>72.7606713550353</v>
+      </c>
+      <c r="F31" t="n">
+        <v>74.3859968415222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>72.9428329467773</v>
+      </c>
+      <c r="E32" t="n">
+        <v>72.7707922532917</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74.3879911963268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>66.4638997569246</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68.0582450513559</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>70.8409511188174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.1213110051669</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>71.1310855132315</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.6357844826733</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71.4553776161805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71.9056989276847</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71.4300710841516</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72.103745310945</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>71.7704782363312</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72.1194463687699</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>72.6338474498006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>72.7704683529209</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73.2507050862049</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73.2858441713711</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>74.6068526638197</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73.8203805100448</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.3126915596567</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75.112859491868</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75.4672723690908</v>
+      </c>
+      <c r="C12" t="n">
+        <v>76.1422104544784</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76.6336011981774</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76.472448545157</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77.1315943507162</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.9571467924458</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78.2151546569977</v>
+      </c>
+      <c r="C15" t="n">
+        <v>77.6080363367709</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78.92562023886</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78.2899260883182</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80.2951591731409</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.2197978891298</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79.4217498524921</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.4168702782122</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80.9173415177734</v>
+      </c>
+      <c r="C19" t="n">
+        <v>79.9309240608811</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79.4526080568913</v>
+      </c>
+      <c r="C20" t="n">
+        <v>79.7788971919987</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80.6039460788278</v>
+      </c>
+      <c r="C21" t="n">
+        <v>80.2099662678941</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>80.7309171362429</v>
+      </c>
+      <c r="E22" t="n">
+        <v>79.0602352495567</v>
+      </c>
+      <c r="F22" t="n">
+        <v>82.1503137506034</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>80.7012208715561</v>
+      </c>
+      <c r="E23" t="n">
+        <v>79.4262281424872</v>
+      </c>
+      <c r="F23" t="n">
+        <v>82.1771989654048</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>80.626509044973</v>
+      </c>
+      <c r="E24" t="n">
+        <v>79.4961705646838</v>
+      </c>
+      <c r="F24" t="n">
+        <v>82.1421330912458</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>81.645235220407</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79.9620427556039</v>
+      </c>
+      <c r="F25" t="n">
+        <v>83.1217633706542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>82.4825169110328</v>
+      </c>
+      <c r="E26" t="n">
+        <v>80.5126993282551</v>
+      </c>
+      <c r="F26" t="n">
+        <v>83.8740239737299</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>83.1127283450502</v>
+      </c>
+      <c r="E27" t="n">
+        <v>81.1924449720344</v>
+      </c>
+      <c r="F27" t="n">
+        <v>84.7053504891329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>83.5948955530851</v>
+      </c>
+      <c r="E28" t="n">
+        <v>81.6859321941953</v>
+      </c>
+      <c r="F28" t="n">
+        <v>85.1597419335209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>84.0403552288525</v>
+      </c>
+      <c r="E29" t="n">
+        <v>82.0638725387634</v>
+      </c>
+      <c r="F29" t="n">
+        <v>85.6186210023817</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>84.8060574936371</v>
+      </c>
+      <c r="E30" t="n">
+        <v>82.6460832518627</v>
+      </c>
+      <c r="F30" t="n">
+        <v>86.3872133521747</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>85.5960501054561</v>
+      </c>
+      <c r="E31" t="n">
+        <v>83.1833729756368</v>
+      </c>
+      <c r="F31" t="n">
+        <v>87.217635014094</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>86.2560154630529</v>
+      </c>
+      <c r="E32" t="n">
+        <v>83.723016620563</v>
+      </c>
+      <c r="F32" t="n">
+        <v>87.9081237990589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46.6115488011814</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47.6556153965542</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>53.6392001188078</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4720747998566</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54.8315097471408</v>
+      </c>
+      <c r="C4" t="n">
+        <v>54.5236339616303</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56.5516605656677</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56.938364907434</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56.9744626765405</v>
+      </c>
+      <c r="C6" t="n">
+        <v>56.8747977550462</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56.1559523970881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.509260338981</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>59.2937761777692</v>
+      </c>
+      <c r="C8" t="n">
+        <v>58.9627438860534</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60.9442237504715</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.4176002206897</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63.7161138974754</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.0231696130201</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>65.0645390684646</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64.9442677305034</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64.7762526639384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65.4231027615458</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67.2588997825454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67.1226559617902</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67.404100690084</v>
+      </c>
+      <c r="C14" t="n">
+        <v>68.4021387497783</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>68.229525250806</v>
+      </c>
+      <c r="C15" t="n">
+        <v>66.9353595273425</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>68.9806077455425</v>
+      </c>
+      <c r="C16" t="n">
+        <v>69.0110591160485</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>70.8787874032245</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70.5171576546309</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>69.2643289937371</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70.1307508206665</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71.6493610785124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>70.9836288528706</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68.9506674681167</v>
+      </c>
+      <c r="C20" t="n">
+        <v>69.1217343110733</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>71.3108220444366</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.517223956035</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>72.9395430854104</v>
+      </c>
+      <c r="E22" t="n">
+        <v>71.5002270370343</v>
+      </c>
+      <c r="F22" t="n">
+        <v>74.0978453401313</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>73.1604989653989</v>
+      </c>
+      <c r="E23" t="n">
+        <v>71.6724000156995</v>
+      </c>
+      <c r="F23" t="n">
+        <v>74.4887181088317</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>74.9730806212773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>73.5145354234727</v>
+      </c>
+      <c r="F24" t="n">
+        <v>76.1959592565832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>76.4300752428972</v>
+      </c>
+      <c r="E25" t="n">
+        <v>74.8465677968298</v>
+      </c>
+      <c r="F25" t="n">
+        <v>77.8566064412309</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>77.6156746125338</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75.8006374241284</v>
+      </c>
+      <c r="F26" t="n">
+        <v>78.8901979821196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>78.8161868316468</v>
+      </c>
+      <c r="E27" t="n">
+        <v>77.0185780075854</v>
+      </c>
+      <c r="F27" t="n">
+        <v>80.2525743788983</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>80.2817151004324</v>
+      </c>
+      <c r="E28" t="n">
+        <v>78.2554361862233</v>
+      </c>
+      <c r="F28" t="n">
+        <v>81.8205255469568</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>81.5036872538646</v>
+      </c>
+      <c r="E29" t="n">
+        <v>79.3706051887213</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83.1377098576314</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>82.7663757674905</v>
+      </c>
+      <c r="E30" t="n">
+        <v>80.4904598859912</v>
+      </c>
+      <c r="F30" t="n">
+        <v>84.3630778520316</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>84.0120801030871</v>
+      </c>
+      <c r="E31" t="n">
+        <v>81.5061184746282</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85.4963863711288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>85.3139387003853</v>
+      </c>
+      <c r="E32" t="n">
+        <v>82.8573827085663</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.986816450343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>65.402609448863</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69.9309342437771</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>69.6648783352087</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70.6488556650318</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69.9610982253049</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.2939604928805</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71.0655610998405</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71.8311110876823</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71.9461970006242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72.3581647924987</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>72.2856590082158</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72.9144160756304</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>73.0106687487851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.4310746091417</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73.7943968268729</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73.9691067766545</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75.1618686215323</v>
+      </c>
+      <c r="C10" t="n">
+        <v>74.4522082029228</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.6343900574801</v>
+      </c>
+      <c r="C11" t="n">
+        <v>74.8953789050919</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75.8672859287837</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75.3994231728212</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76.6749246783695</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75.8315737804259</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77.3496412987314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.2014395002398</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77.6456659965229</v>
+      </c>
+      <c r="C15" t="n">
+        <v>76.5707102072924</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77.751090933902</v>
+      </c>
+      <c r="C16" t="n">
+        <v>76.9087455153009</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79.0067461618286</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.2432930260303</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77.7205292085195</v>
+      </c>
+      <c r="C18" t="n">
+        <v>77.5486038720604</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79.1759545480481</v>
+      </c>
+      <c r="C19" t="n">
+        <v>77.869948160495</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77.8606113164536</v>
+      </c>
+      <c r="C20" t="n">
+        <v>78.1526399675182</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.9452394579496</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78.4734288483398</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>79.08396657368</v>
+      </c>
+      <c r="E22" t="n">
+        <v>77.145086547727</v>
+      </c>
+      <c r="F22" t="n">
+        <v>83.5276347157776</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>79.6467202790262</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.6436840935659</v>
+      </c>
+      <c r="F23" t="n">
+        <v>84.0485964132115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>80.1637762121767</v>
+      </c>
+      <c r="E24" t="n">
+        <v>78.1818469344825</v>
+      </c>
+      <c r="F24" t="n">
+        <v>84.6201547254078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>80.6680255102447</v>
+      </c>
+      <c r="E25" t="n">
+        <v>78.6842869190816</v>
+      </c>
+      <c r="F25" t="n">
+        <v>85.1961887234805</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>81.1513786066181</v>
+      </c>
+      <c r="E26" t="n">
+        <v>78.9003684352739</v>
+      </c>
+      <c r="F26" t="n">
+        <v>85.5731923675452</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>81.6283195105015</v>
+      </c>
+      <c r="E27" t="n">
+        <v>79.3218609912286</v>
+      </c>
+      <c r="F27" t="n">
+        <v>86.1250592863295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>82.0933187427552</v>
+      </c>
+      <c r="E28" t="n">
+        <v>79.7457966697556</v>
+      </c>
+      <c r="F28" t="n">
+        <v>86.6001273115986</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>82.5552318052758</v>
+      </c>
+      <c r="E29" t="n">
+        <v>79.9349980187698</v>
+      </c>
+      <c r="F29" t="n">
+        <v>86.9617858423922</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>83.0110735185477</v>
+      </c>
+      <c r="E30" t="n">
+        <v>80.4063967327275</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87.5436612310665</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>83.4659388017765</v>
+      </c>
+      <c r="E31" t="n">
+        <v>80.6853009030635</v>
+      </c>
+      <c r="F31" t="n">
+        <v>88.1565863364144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>83.9178747987457</v>
+      </c>
+      <c r="E32" t="n">
+        <v>80.925981186063</v>
+      </c>
+      <c r="F32" t="n">
+        <v>88.448472157592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49.1525407059475</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54.5601649952855</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57.8899658580675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>57.1346824959934</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>58.857397619939</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.289108668515</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60.1279717415759</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60.8788272472554</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61.6778784303429</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61.6291984277039</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61.7424796276367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62.9513319435777</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63.4944796728542</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64.4168728497176</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64.7921124801272</v>
+      </c>
+      <c r="C9" t="n">
+        <v>65.2772115879963</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>66.3503828036861</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66.3633729408574</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>68.1762466327518</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67.2486709514014</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67.862051651829</v>
+      </c>
+      <c r="C12" t="n">
+        <v>68.1130072589191</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>70.1919469494112</v>
+      </c>
+      <c r="C13" t="n">
+        <v>69.3635782667777</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70.1819237022078</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.5075431187527</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71.3372318410876</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71.0525764913812</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72.073626146064</v>
+      </c>
+      <c r="C16" t="n">
+        <v>71.3735924078875</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74.8485965192323</v>
+      </c>
+      <c r="C17" t="n">
+        <v>71.9549610506751</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73.3024684690351</v>
+      </c>
+      <c r="C18" t="n">
+        <v>72.6196078852985</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>75.7798287619857</v>
+      </c>
+      <c r="C19" t="n">
+        <v>73.3417117558203</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>73.4035614289685</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74.3052078290499</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>76.3114702193275</v>
+      </c>
+      <c r="C21" t="n">
+        <v>75.1729330892115</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>47.8916672308567</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53.1409594413952</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>54.8800993860079</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.6072690108499</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>55.44029467019</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55.6553196810476</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>55.901908361482</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56.2016748307822</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56.0601966086804</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.0435133641221</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56.8784734927314</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58.3114044474859</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58.2725239766348</v>
+      </c>
+      <c r="C8" t="n">
+        <v>59.4223089876852</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58.7435569740789</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60.1021469649464</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61.5022882450136</v>
+      </c>
+      <c r="C10" t="n">
+        <v>60.9630821858029</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63.3662902172355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>62.0540922534223</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64.0515120202313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63.0507314659556</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>64.3538085529115</v>
+      </c>
+      <c r="C13" t="n">
+        <v>63.8594655537506</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>65.0413827126382</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64.4132544271899</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.8512185018395</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.8815366382541</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>66.3026664908024</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65.2431038958287</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>67.7958212784392</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65.5209790640319</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66.8392916042501</v>
+      </c>
+      <c r="C18" t="n">
+        <v>66.0009142123815</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>68.0628635545362</v>
+      </c>
+      <c r="C19" t="n">
+        <v>66.6858097526835</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>66.7607268888945</v>
+      </c>
+      <c r="C20" t="n">
+        <v>67.6218739226123</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>69.2000516976544</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68.4172023648807</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>48.9369931042683</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50.0545598143028</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56.5689368953749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>55.4673191574266</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57.1098848365611</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.2691312022354</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58.4722361604919</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.4400765015273</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58.3168072772596</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58.1838482702395</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58.6073138717339</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58.8080248102025</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60.5065146396096</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.5546679702822</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62.4741602544938</v>
+      </c>
+      <c r="C9" t="n">
+        <v>63.3667135912252</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65.2208049212423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.2392215683396</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66.3123781538843</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.5276794368464</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66.7253346266932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67.3727014729571</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68.0366632268884</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68.2116593405651</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>69.6596022843085</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.1939443214732</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71.2855410268396</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71.2948915192704</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72.4147344689881</v>
+      </c>
+      <c r="C16" t="n">
+        <v>72.3991024465861</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75.5827762054624</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74.467810067829</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73.6114358190651</v>
+      </c>
+      <c r="C18" t="n">
+        <v>74.2648247455107</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76.3634852530302</v>
+      </c>
+      <c r="C19" t="n">
+        <v>76.1961412080737</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>73.7361018582218</v>
+      </c>
+      <c r="C20" t="n">
+        <v>73.857700226648</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>76.2620709756658</v>
+      </c>
+      <c r="C21" t="n">
+        <v>76.033758188542</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>77.2317420086116</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75.1955529568784</v>
+      </c>
+      <c r="F22" t="n">
+        <v>79.023375361904</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>77.0923950856117</v>
+      </c>
+      <c r="E23" t="n">
+        <v>74.9464530892253</v>
+      </c>
+      <c r="F23" t="n">
+        <v>78.8512521134556</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>78.8759290632067</v>
+      </c>
+      <c r="E24" t="n">
+        <v>77.0677779165032</v>
+      </c>
+      <c r="F24" t="n">
+        <v>80.9291798510173</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>79.7218617143794</v>
+      </c>
+      <c r="E25" t="n">
+        <v>77.7546658921472</v>
+      </c>
+      <c r="F25" t="n">
+        <v>81.9310060031102</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>81.5870080892517</v>
+      </c>
+      <c r="E26" t="n">
+        <v>78.9244295762359</v>
+      </c>
+      <c r="F26" t="n">
+        <v>83.5125705875975</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>83.4289084940743</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80.4294666829729</v>
+      </c>
+      <c r="F27" t="n">
+        <v>85.2673827751082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>84.4202254781505</v>
+      </c>
+      <c r="E28" t="n">
+        <v>81.4110972173388</v>
+      </c>
+      <c r="F28" t="n">
+        <v>86.5571908728007</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>85.7106908539091</v>
+      </c>
+      <c r="E29" t="n">
+        <v>82.4224250498363</v>
+      </c>
+      <c r="F29" t="n">
+        <v>87.8808117724965</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>87.1261729022424</v>
+      </c>
+      <c r="E30" t="n">
+        <v>83.6050093952272</v>
+      </c>
+      <c r="F30" t="n">
+        <v>89.4191814195539</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>88.4410283429443</v>
+      </c>
+      <c r="E31" t="n">
+        <v>84.6115573408608</v>
+      </c>
+      <c r="F31" t="n">
+        <v>90.6495442128249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>89.9258402472821</v>
+      </c>
+      <c r="E32" t="n">
+        <v>85.7183818930057</v>
+      </c>
+      <c r="F32" t="n">
+        <v>92.3636152409725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>68.04693</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.7684308609541</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>72.3984615290001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.6189687872181</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>72.8634613496667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72.3092084861477</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>72.6730436913334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.9313951330172</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>72.6303256723335</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.1201017540019</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>73.40996</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73.8025294752394</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>74.0062403836667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>74.454875205488</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74.5377650896668</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74.8042996431497</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75.3438113413335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75.3665105284752</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.8507807693334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76.4483932999164</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76.01514</v>
+      </c>
+      <c r="C12" t="n">
+        <v>76.3794083254358</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76.7994571656668</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76.9785414730871</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77.3731900740001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>77.5399305719152</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78.6617950580001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>78.1330494723142</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79.7645834843334</v>
+      </c>
+      <c r="C16" t="n">
+        <v>79.0796755995686</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81.80667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>80.0349489767314</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80.6734729446667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>80.4895276154356</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>82.25902</v>
+      </c>
+      <c r="C19" t="n">
+        <v>80.5858465173718</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>80.7407807610001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>80.8536835993263</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81.13407</v>
+      </c>
+      <c r="C21" t="n">
+        <v>81.2896339892074</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>81.7389192327715</v>
+      </c>
+      <c r="E22" t="n">
+        <v>79.960555788433</v>
+      </c>
+      <c r="F22" t="n">
+        <v>84.2749789870579</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>82.2751456081803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>80.5595579062235</v>
+      </c>
+      <c r="F23" t="n">
+        <v>84.6783832973312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>82.8029121110814</v>
+      </c>
+      <c r="E24" t="n">
+        <v>80.7807859847536</v>
+      </c>
+      <c r="F24" t="n">
+        <v>85.1832253354518</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>83.3476165177346</v>
+      </c>
+      <c r="E25" t="n">
+        <v>81.6859413512757</v>
+      </c>
+      <c r="F25" t="n">
+        <v>86.0036735817577</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>83.8924484096869</v>
+      </c>
+      <c r="E26" t="n">
+        <v>81.9567605609493</v>
+      </c>
+      <c r="F26" t="n">
+        <v>86.3974480676952</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>84.4411958805036</v>
+      </c>
+      <c r="E27" t="n">
+        <v>82.7277171358844</v>
+      </c>
+      <c r="F27" t="n">
+        <v>86.7669521862765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>84.9909368324494</v>
+      </c>
+      <c r="E28" t="n">
+        <v>82.9932494667164</v>
+      </c>
+      <c r="F28" t="n">
+        <v>87.5929056843282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>85.5420192920803</v>
+      </c>
+      <c r="E29" t="n">
+        <v>83.5551484588876</v>
+      </c>
+      <c r="F29" t="n">
+        <v>88.0045422214199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>86.0937856706535</v>
+      </c>
+      <c r="E30" t="n">
+        <v>83.8708906851696</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.6891588687285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>86.646144198814</v>
+      </c>
+      <c r="E31" t="n">
+        <v>84.3040984633433</v>
+      </c>
+      <c r="F31" t="n">
+        <v>89.3551907673296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>87.1988842765058</v>
+      </c>
+      <c r="E32" t="n">
+        <v>84.9936733614888</v>
+      </c>
+      <c r="F32" t="n">
+        <v>89.7904785839943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45.9762964153893</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45.9757308959961</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>52.7862695960191</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.7890510559082</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>53.9636874795192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.9630813598633</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>55.7409083540577</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.7428932189941</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>55.9679770323812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55.9620132446289</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>55.0420330321756</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55.0435791015625</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58.4357372952728</v>
+      </c>
+      <c r="C8" t="n">
+        <v>58.4346542358398</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60.1500374715524</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60.1504516601562</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63.1271586424279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.1275367736816</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>64.4205839411046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64.419548034668</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64.1240548130548</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64.1250534057617</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>66.6245345264931</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66.6277847290039</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>66.8123780562436</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.8106536865234</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>67.6031788803719</v>
+      </c>
+      <c r="C15" t="n">
+        <v>67.6019515991211</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>68.3740622911811</v>
+      </c>
+      <c r="C16" t="n">
+        <v>68.3719787597656</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>70.1561446346709</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70.1564788818359</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>68.5257988780346</v>
+      </c>
+      <c r="C18" t="n">
+        <v>68.5291595458984</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70.9200248034444</v>
+      </c>
+      <c r="C19" t="n">
+        <v>70.9124603271484</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68.1556311542606</v>
+      </c>
+      <c r="C20" t="n">
+        <v>68.1589508056641</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>70.4378545723491</v>
+      </c>
+      <c r="C21" t="n">
+        <v>70.4375915527344</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>70.4878616333008</v>
+      </c>
+      <c r="E22" t="n">
+        <v>68.7115815312306</v>
+      </c>
+      <c r="F22" t="n">
+        <v>70.8941011581639</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>70.4821014404297</v>
+      </c>
+      <c r="E23" t="n">
+        <v>68.7001055814252</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70.8897123472938</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>70.4239120483398</v>
+      </c>
+      <c r="E24" t="n">
+        <v>68.7076483755064</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70.8940272593267</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>70.4239120483398</v>
+      </c>
+      <c r="E25" t="n">
+        <v>68.7133108567457</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70.8934926024708</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E26" t="n">
+        <v>68.7075823882187</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70.8879629531292</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E27" t="n">
+        <v>68.7011345055521</v>
+      </c>
+      <c r="F27" t="n">
+        <v>70.8900732295352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E28" t="n">
+        <v>68.7108530610988</v>
+      </c>
+      <c r="F28" t="n">
+        <v>70.8919186352149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E29" t="n">
+        <v>68.713156130698</v>
+      </c>
+      <c r="F29" t="n">
+        <v>70.8892417474636</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E30" t="n">
+        <v>68.7134232946886</v>
+      </c>
+      <c r="F30" t="n">
+        <v>70.8877327527642</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68.7107308541585</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70.8924060044366</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>70.4204559326172</v>
+      </c>
+      <c r="E32" t="n">
+        <v>68.711259945341</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70.8918289349872</v>
       </c>
     </row>
   </sheetData>
